--- a/gradle環境.xlsx
+++ b/gradle環境.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Project" sheetId="2" r:id="rId1"/>
     <sheet name="RUNとDEBUG環境" sheetId="1" r:id="rId2"/>
     <sheet name="Gradle設定" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
   <si>
     <t>実行環境</t>
     <rPh sb="0" eb="2">
@@ -334,12 +335,491 @@
     <t>}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3).javaファイルをJARに含める</t>
+    <rPh sb="16" eb="17">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task sourcesJar(type: Jar, dependsOn: classes) {</t>
+  </si>
+  <si>
+    <t>classifier 'sources'</t>
+  </si>
+  <si>
+    <t>from sourceSets.main.allSource</t>
+  </si>
+  <si>
+    <t>artifacts {</t>
+  </si>
+  <si>
+    <t>archives sourcesJar</t>
+  </si>
+  <si>
+    <t>buildscript {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ext {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        springBootVersion = '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    repositories {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mavenCentral()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dependencies {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        classpath("org.springframework.boot:spring-boot-gradle-plugin:${springBootVersion}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        classpath 'org.ajoberstar:gradle-git:0.8.0'</t>
+  </si>
+  <si>
+    <t>apply plugin: 'java'</t>
+  </si>
+  <si>
+    <t>apply plugin: 'eclipse-wtp'</t>
+  </si>
+  <si>
+    <t>apply plugin: 'org.springframework.boot'</t>
+  </si>
+  <si>
+    <t>apply plugin: 'war'</t>
+  </si>
+  <si>
+    <t>group = 'jp.misumi'</t>
+  </si>
+  <si>
+    <t>sourceCompatibility = 1.8</t>
+  </si>
+  <si>
+    <t>bootRepackage {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    enabled = false</t>
+  </si>
+  <si>
+    <t>ext.isfromlocal = System.getProperty("isfromlocal", "0")</t>
+  </si>
+  <si>
+    <t>version = System.getProperty("ver", "")</t>
+  </si>
+  <si>
+    <t>ext.kbn = System.getProperty("kbn", "all")</t>
+  </si>
+  <si>
+    <t>ext.env = System.getProperty("env", "nairen")</t>
+  </si>
+  <si>
+    <t>ext.warname = 'api-'+ kbn + version + '.war'</t>
+  </si>
+  <si>
+    <t>repositories {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mavenLocal()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mavenCentral()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    maven { url "http://www.datanucleus.org/downloads/maven2/" }</t>
+  </si>
+  <si>
+    <t>ext.revision = ""</t>
+  </si>
+  <si>
+    <t>ext.compileDate = ""</t>
+  </si>
+  <si>
+    <t>task buildInfo {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def grgit=org.ajoberstar.grgit.Grgit.open(project.file('../'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        println "revision: " + grgit.head().id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        revision=grgit.head().id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } catch(Exception){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        println "There is no repository in project path and ignore to set commitId to META-INF."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compileDate=new Date()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    println "compile date: " + compileDate</t>
+  </si>
+  <si>
+    <t>war.dependsOn buildInfo</t>
+  </si>
+  <si>
+    <t>task renameJmxDomain(type: Copy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from 'src/main/resources/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    into 'build/resources/main/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    include 'application.properties'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    filteringCharset = 'UTF-8'</t>
+  </si>
+  <si>
+    <t>war.dependsOn renameJmxDomain</t>
+  </si>
+  <si>
+    <t>task rename(type: Copy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    include 'log4j2_' + kbn + '.xml'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rename ('log4j2_' + kbn + '.xml','log4j2.xml')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   filter(org.apache.tools.ant.filters.ReplaceTokens, tokens: ['versionno':version])</t>
+  </si>
+  <si>
+    <t>war.dependsOn rename</t>
+  </si>
+  <si>
+    <t>task copyMetaConf(type: Copy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    into 'src/main/webapp/META-INF/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    include 'context.xml'</t>
+  </si>
+  <si>
+    <t>war.dependsOn copyMetaConf</t>
+  </si>
+  <si>
+    <t>task copyWebConf(type: Copy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    into 'src/main/webapp/WEB-INF/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    include 'web.xml'</t>
+  </si>
+  <si>
+    <t>war.dependsOn copyWebConf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(isfromlocal!='0'){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }else{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'javax.validation', name: 'validation-api', version: '1.1.0.Final'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.ws.commons.axiom', name: 'axiom-impl', version: '1.2.13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.ws.commons.axiom', name: 'axiom-api', version: '1.2.13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.ws.commons.axiom', name: 'axiom-dom', version: '1.2.13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-adb', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-kernel', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-codegen', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-jaxws', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-transport-http', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-transport-local', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.axis2', name: 'axis2-xmlbeans', version: '1.6.2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.logging.log4j', name: 'log4j-slf4j-impl', version: '2.7'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.woden', name: 'woden-api', version: '1.0M9'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'org.apache.ws.commons.schema', name: 'XmlSchema', version: '1.4.7'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile group: 'oracle', name: 'ojdbc6', version: '11.2.0.3'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-actuator', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-autoconfigure', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-devtools', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-starter', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-starter-aop', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-starter-jdbc', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile('org.springframework.boot:spring-boot-starter-log4j2:1.5.9.RELEASE')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exclude module: 'log4j-slf4j-impl'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-starter-logging', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.springframework.boot', name: 'spring-boot-starter-web', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.apache.tomcat.embed', name: 'tomcat-embed-core', version: '8.5.20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.apache.tomcat.embed', name: 'tomcat-embed-el', version: '8.5.20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.apache.tomcat.embed', name: 'tomcat-embed-websocket', version: '8.5.20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.mybatis', name: 'mybatis', version: '3.4.5'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.mybatis', name: 'mybatis-spring', version: '1.3.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.mybatis.spring.boot', name: 'mybatis-spring-boot-autoconfigure', version: '1.3.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.mybatis.spring.boot', name: 'mybatis-spring-boot-starter', version: '1.3.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'org.apache.tomcat', name: 'tomcat-jdbc', version: '8.5.23'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'mysql', name: 'mysql-connector-java', version: '5.1.44'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework.boot', name: 'spring-boot-starter-actuator', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework.boot', name: 'spring-boot-starter-validation', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework.boot', name: 'spring-boot-starter-web-services', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework.boot', name: 'spring-boot-test-autoconfigure', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework', name: 'spring-orm', version: '4.3.13.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedRuntime group: 'org.springframework', name: 'spring-oxm', version: '4.3.13.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    runtime('log4j:log4j:1.2.15') {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exclude module: 'jms'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exclude module: 'jmxtools'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exclude module: 'jmxri'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'javax.servlet', name: 'javax.servlet-api', version:'3.1.0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile group: 'javax.servlet.jsp', name: 'javax.servlet.jsp-api', version:'2.2.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    testCompile group: 'org.hamcrest', name: 'hamcrest-core', version: '1.3'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    testCompile group: 'org.hamcrest', name: 'hamcrest-library', version: '1.3'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    testCompile group: 'junit', name: 'junit', version: '4.12'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    testCompile group: 'org.springframework.boot', name: 'spring-boot-test', version: '1.5.9.RELEASE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    testCompile group: 'org.springframework', name: 'spring-test', version: '4.3.13.RELEASE'</t>
+  </si>
+  <si>
+    <t>configurations {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile.exclude module: 'spring-ws-core'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    providedCompile.exclude module: 'spring-xml'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'servlet-api'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'woden-impl-commons'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'woden-impl-dom'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'xalan'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'xmlbeans'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'xml-resolver'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    compile.exclude module: 'httpcore'</t>
+  </si>
+  <si>
+    <t>war {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    webInf { from 'WebContent/WEB-INF' } // adds a file-set to the WEB-INF dir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    archiveName warname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    manifest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        attributes 'revision': revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        attributes "compile-date": compileDate</t>
+  </si>
+  <si>
+    <t>if(kbn=='test'){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sourceSets {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    main {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        java {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(kbn=='test'){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include 'jp/zw/test.java'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     apply from: 'build_test.gradle'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>build_test.gradle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>build.gradle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４）gradle依頼</t>
+    <rPh sb="8" eb="10">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   filter(org.apache.tools.ant.filters.ReplaceTokens, tokens: ['jmx-domain':'test-' + kbn + version])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    from '../../conf/common/'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    from '../../infra-conf/' + env + '/TEST/'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    from '../../conf/common/war/WEB-INF/'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        compile files ('lib/common.jar')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        compile group: 'zw-private', name: 'common', version: '1.0.0'</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +932,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1310,7 +1798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1342,9 +1830,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1376,6 +1865,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1551,17 +2041,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B353"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1569,12 +2059,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>2</v>
       </c>
@@ -1582,27 +2072,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>3</v>
       </c>
@@ -1610,32 +2100,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>4</v>
       </c>
@@ -1643,17 +2133,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>40</v>
       </c>
@@ -1667,19 +2157,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1687,17 +2177,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1706,102 +2196,102 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15">
+    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
@@ -1809,12 +2299,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +2312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>22</v>
       </c>
@@ -1836,146 +2326,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DP233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="BU39" sqref="BU39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>65</v>
       </c>
@@ -1983,24 +2471,899 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DP50" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="DP51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="DP52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="DP53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="DP54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="DP55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="DP56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="DP57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="DP58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="DP59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:120" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2008,4 +3371,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gradle環境.xlsx
+++ b/gradle環境.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Project" sheetId="2" r:id="rId1"/>
     <sheet name="RUNとDEBUG環境" sheetId="1" r:id="rId2"/>
     <sheet name="Gradle設定" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="sourceSets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="229">
   <si>
     <t>実行環境</t>
     <rPh sb="0" eb="2">
@@ -813,6 +813,24 @@
   <si>
     <t xml:space="preserve">        compile group: 'zw-private', name: 'common', version: '1.0.0'</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[compileJava, compileTestJava]*.options*.encoding = 'UTF-8'</t>
+  </si>
+  <si>
+    <t>// Gralde標準外のソースパスを追加</t>
+  </si>
+  <si>
+    <t>sourceSets.main.java.srcDirs = ['src']</t>
+  </si>
+  <si>
+    <t>//sourceSets.main.resources.srcDirs = ['src']</t>
+  </si>
+  <si>
+    <t>// Webリソースの場所（標準だと src/main/webapp）</t>
+  </si>
+  <si>
+    <t>webAppDirName = "WebContent"</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2329,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A211" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3375,57 +3393,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
